--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishesh\Desktop\BTP2-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941FD99E-6C91-4E4A-8D6B-F924D42A4A25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432B916C-BEA2-4D13-8B60-E32B56D5A1D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{6202F7C8-3E33-48FE-A854-7CA5C65CFD0A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{6202F7C8-3E33-48FE-A854-7CA5C65CFD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Batches</t>
   </si>
@@ -84,6 +85,9 @@
   </si>
   <si>
     <t>I_0</t>
+  </si>
+  <si>
+    <t>PMMA</t>
   </si>
 </sst>
 </file>
@@ -482,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F52843-0374-4AAB-B884-BA93DF20F3B6}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -964,4 +968,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D77B001-ABBD-4FB2-8B5C-D69F6FE80D72}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="B3">
+        <v>37.6</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1.4E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.95E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.12130000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G7">
+        <v>0.10730000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1.84E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.40749999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishesh\Desktop\BTP2-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432B916C-BEA2-4D13-8B60-E32B56D5A1D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6AE8AA-B6DC-4681-B0A4-0147E91E93B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{6202F7C8-3E33-48FE-A854-7CA5C65CFD0A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{6202F7C8-3E33-48FE-A854-7CA5C65CFD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
     <t>Batches</t>
   </si>
@@ -88,6 +90,9 @@
   </si>
   <si>
     <t>PMMA</t>
+  </si>
+  <si>
+    <t>Main3</t>
   </si>
 </sst>
 </file>
@@ -103,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -153,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -170,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D77B001-ABBD-4FB2-8B5C-D69F6FE80D72}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,12 +995,12 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.4E-3</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1039,25 +1051,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1067,37 +1073,91 @@
       <c r="C6">
         <v>1.95E-2</v>
       </c>
+      <c r="D6" s="8">
+        <v>2.4560000000000001E-4</v>
+      </c>
+      <c r="F6">
+        <v>2.3E-2</v>
+      </c>
       <c r="G6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H6">
         <v>0.12130000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
       <c r="B7">
         <v>5.7000000000000002E-3</v>
       </c>
+      <c r="C7">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.6561999999999999E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.10730000000000001</v>
+      </c>
       <c r="G7">
-        <v>0.10730000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>40</v>
       </c>
       <c r="B8">
         <v>1.84E-2</v>
       </c>
+      <c r="C8">
+        <v>0.4037</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.40749999999999997</v>
+      </c>
       <c r="G8">
-        <v>0.40749999999999997</v>
+        <v>2.5524</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6.3E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1E07DD-C4A6-4E59-B548-3795C03ABED9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D96C179-8414-4EDF-8D18-B8808A3ECAD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>